--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -112,6 +112,7 @@
     <sheet name="2019-12-06" sheetId="104" state="visible" r:id="rId104"/>
     <sheet name="2019-12-09" sheetId="105" state="visible" r:id="rId105"/>
     <sheet name="2019-12-10" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet name="2019-12-11" sheetId="107" state="visible" r:id="rId107"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3939,6 +3940,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>273971403.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1158.98</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11759394.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>74775263.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-127274591.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600406</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>国电南瑞</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-60471801.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>保利地产</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>41622888.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601138</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>工业富联</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-22174371.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>185167.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>91041494.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>44736861.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -113,6 +113,7 @@
     <sheet name="2019-12-09" sheetId="105" state="visible" r:id="rId105"/>
     <sheet name="2019-12-10" sheetId="106" state="visible" r:id="rId106"/>
     <sheet name="2019-12-11" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet name="2019-12-12" sheetId="108" state="visible" r:id="rId108"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4326,6 +4327,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1137</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>353932606.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>742455646.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>601877</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>正泰电器</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>453870342.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>303907278.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3867388.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>526409.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>127702796.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>603799</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>华友钴业</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>142968517.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>601288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>农业银行</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>79129751.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>53877774.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -114,6 +114,7 @@
     <sheet name="2019-12-10" sheetId="106" state="visible" r:id="rId106"/>
     <sheet name="2019-12-11" sheetId="107" state="visible" r:id="rId107"/>
     <sheet name="2019-12-12" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet name="2019-12-13" sheetId="109" state="visible" r:id="rId109"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4713,6 +4714,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>86.77</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>954386724.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1163</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>480243087.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>603259</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>94.58</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-338502402.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>472988059.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.80%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-20477953.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>396994019.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>61674248.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-84894818.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-411336362.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-98526024.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -115,6 +115,7 @@
     <sheet name="2019-12-11" sheetId="107" state="visible" r:id="rId107"/>
     <sheet name="2019-12-12" sheetId="108" state="visible" r:id="rId108"/>
     <sheet name="2019-12-13" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet name="2019-12-16" sheetId="110" state="visible" r:id="rId110"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5486,6 +5487,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>122556264.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-4.4%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-168498496.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1147.92</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>31617187.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>33144881.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-101481207.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>85.25</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-84409813.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-76858250.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>61146327.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>603501</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>韦尔股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>149.09</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>26755478.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-16</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>保利地产</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-138047648.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -116,6 +116,7 @@
     <sheet name="2019-12-12" sheetId="108" state="visible" r:id="rId108"/>
     <sheet name="2019-12-13" sheetId="109" state="visible" r:id="rId109"/>
     <sheet name="2019-12-16" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet name="2019-12-17" sheetId="111" state="visible" r:id="rId111"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5873,6 +5874,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1169.98</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>406859475.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>86.13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>292494560.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-30935887.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>86.04000000000001</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>289049282.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-26826948.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>179960956.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>66349942.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>601138</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>工业富联</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>179014446.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>25472909.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>48.57</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-16227168.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -117,6 +117,7 @@
     <sheet name="2019-12-13" sheetId="109" state="visible" r:id="rId109"/>
     <sheet name="2019-12-16" sheetId="110" state="visible" r:id="rId110"/>
     <sheet name="2019-12-17" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet name="2019-12-18" sheetId="112" state="visible" r:id="rId112"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6260,6 +6261,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.98</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>333548429.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>37.99</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>380716342.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1168</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-48396335.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>107167636.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>121220853.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>141146042.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>59919827.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>601006</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大秦铁路</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>103957565.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>601398</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>工商银行</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>195776500.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-100902422.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -118,6 +118,7 @@
     <sheet name="2019-12-16" sheetId="110" state="visible" r:id="rId110"/>
     <sheet name="2019-12-17" sheetId="111" state="visible" r:id="rId111"/>
     <sheet name="2019-12-18" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet name="2019-12-19" sheetId="113" state="visible" r:id="rId113"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6647,6 +6648,392 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1157.4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-259969617.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>192179022.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>601231</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>环旭电子</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-7.4%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-219534703.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>601138</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>工业富联</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-4.1%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>131312640.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>84.86</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>170370643.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>89868281.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601398</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>工商银行</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>161625690.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>65827247.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-65291072.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>138015129.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -119,6 +119,8 @@
     <sheet name="2019-12-17" sheetId="111" state="visible" r:id="rId111"/>
     <sheet name="2019-12-18" sheetId="112" state="visible" r:id="rId112"/>
     <sheet name="2019-12-19" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet name="2019-12-20" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet name="2019-12-23" sheetId="115" state="visible" r:id="rId115"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7034,6 +7036,778 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1146.3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>118744024.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>85.53</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>179195824.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-5362403.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.04%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>102343170.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>37.54</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>146754687.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>171735574.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601231</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>环旭电子</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-9.5%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-7578068.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>111005300.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600050</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中国联通</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>175776048.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-38377288.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1149.3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.26%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>404398249.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-112310005.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>85.23</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>125499113.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-303663519.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-12051503.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>603986</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>兆易创新</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-6.6%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10875679.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>44317321.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.83</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>114797351.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.29%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>71788204.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>603799</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>华友钴业</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.34%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>226955949.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/datas/沪股通前十大成交股.xlsx
+++ b/datas/沪股通前十大成交股.xlsx
@@ -121,6 +121,20 @@
     <sheet name="2019-12-19" sheetId="113" state="visible" r:id="rId113"/>
     <sheet name="2019-12-20" sheetId="114" state="visible" r:id="rId114"/>
     <sheet name="2019-12-23" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet name="2019-12-27" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet name="2019-12-30" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet name="2019-12-31" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet name="2020-01-02" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet name="2020-01-03" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet name="2020-01-06" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet name="2020-01-07" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet name="2020-01-08" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet name="2020-01-09" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet name="2020-01-10" sheetId="125" state="visible" r:id="rId125"/>
+    <sheet name="2020-01-13" sheetId="126" state="visible" r:id="rId126"/>
+    <sheet name="2020-01-14" sheetId="127" state="visible" r:id="rId127"/>
+    <sheet name="2020-01-15" sheetId="128" state="visible" r:id="rId128"/>
+    <sheet name="2020-01-16" sheetId="129" state="visible" r:id="rId129"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7808,6 +7822,1550 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1163</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1041651120.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>84.72</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>479183239.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>52.01</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-37112270.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240323146.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-65454067.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-352013911.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>246005313.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-62279913.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>106038938.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-27</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-63410812.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.38%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-119593437.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1185.8</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>410330567.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>94171098.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-86011583.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>220764712.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>83015256.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-128509350.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8876464.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-146932666.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>89</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17278008.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>118732137.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1183</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>122283736.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>87.52</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-7081098.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-63307954.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-244623745.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-94194154.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.60%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-97214433.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>保利地产</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-129459005.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>601138</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>工业富联</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.80%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-67589070.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600309</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>万华化学</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>56.17</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>73951285.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1130</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-4.4%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-502605914.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>453066746.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>38.88</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>427951281.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-119829185.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>87.68000000000001</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.18%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>98551548.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>601668</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>中国建筑</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.16%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>356133789.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>保利地产</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>195320230.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.07%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>304981413.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>113880339.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>14779150.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -8186,6 +9744,3866 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>-5338636.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1078.56</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-4.5%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-1482748466.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601668</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国建筑</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>647054399.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>362314684.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>85.95</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>117155648.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.33%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>116414363.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>108356338.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>19671747.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>54.68</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-2.0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>76179253.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600309</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>万华化学</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>56.94</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-38800216.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>601012</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>隆基股份</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-103301773.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1077.99</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>234181252.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>106271080.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11836983.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>84.09</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-2.1%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-94467628.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-80644680.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>100419909.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601668</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>中国建筑</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>199579132.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-9081922.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-34803379.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-38212212.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1094.53</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>477882765.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>86.15000000000001</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>260787977.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>84.87</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>253949814.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-112290284.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600009</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>上海机场</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-111183636.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-13095866.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>41850503.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>53.48</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-67159230.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>241022085.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-5477539.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-342639925.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1088.14</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-270025582.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>84.68000000000001</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>50562486.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>82750539.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-2.9%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4978155.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>52.69</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>53075779.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-62204153.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>38.41</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-26562962.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>53345342.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600009</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>上海机场</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75.06</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-147981595.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1102.7</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>845754417.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>85.04000000000001</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.04%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>94044677.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>保利地产</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>412735286.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>86.88</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>182231390.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>395416159.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>53.14</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.85%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-216732060.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11085170.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>169995465.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600009</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>上海机场</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>75.56</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-163863591.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>14902528.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1112.5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>639936732.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>84.78</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>23985949.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>343096559.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600009</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>上海机场</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-105257002.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-7996468.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>94.34</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>83302680.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>39.04</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-9118303.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-95068246.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>保利地产</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-30461086.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600050</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>中国联通</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-194525786.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1124.27</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>513171567.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>436472686.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>87.84</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-253873207.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>91</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-3.5%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>228037385.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-104479053.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600031</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-256586647.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>52.72</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-147337825.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600009</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>上海机场</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>75.95</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-15203144.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>64909651.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>32218116.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>86.83</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>733699491.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1107.4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-162702159.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>86.51000000000001</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-118860217.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600009</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>上海机场</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>74.56</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-283438616.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600050</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中国联通</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>347116400.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5353856.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>603993</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>洛阳钼业</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.28%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>97841505.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>52.91</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-164365694.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-23213422.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>603160</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>汇顶科技</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>266</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>98206191.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>85.81</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-195727090.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1112.13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-129607339.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-83214939.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>86.93000000000001</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-99076336.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600887</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>伊利股份</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.64%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>170270322.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600009</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>上海机场</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-112742988.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>603993</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>洛阳钼业</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12401255.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>157750790.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>603501</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>韦尔股份</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>177.05</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.37%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>23019501.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>601012</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>隆基股份</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>19390815.0元</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>净买入额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1107</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>235466250.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>170381387.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>600276</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-100884258.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>600585</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>51.73</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>117210382.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>37.96</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-113126368.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-132026495.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>601012</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>隆基股份</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-1517355.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>保利地产</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>153133341.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>603019</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中科曙光</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1.5%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>204454382.0元</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>601888</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>中国国旅</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>90.39</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>135849698.0元</t>
         </is>
       </c>
     </row>
